--- a/13.bug表/bug记录表.xlsx
+++ b/13.bug表/bug记录表.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,15 +48,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2022.10.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联泵出现错误，实际上只有一个泵却出现三个水池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.10.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配方设置name[8],实际上赋值8位后会出现乱码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应该如果最大8位那么应该有9个byte的空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.10.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现终端设备一直无法上线的原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置实际的地址不成功，导致一个总线上同时出现两个一样的地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>出现tcp连接出错，一直连接不上</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2022.10.18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联泵出现错误，实际上只有一个泵却出现三个水池</t>
+    <t>措施</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册的时候没有注册好，导致总线上出现两个相同的设备地址，现在隔60秒重新发送设置地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果一分钟没有心跳包则断线</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -80,12 +124,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -100,11 +150,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -406,31 +457,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="36.25" customWidth="1"/>
     <col min="2" max="2" width="44.625" customWidth="1"/>
-    <col min="3" max="3" width="37.875" customWidth="1"/>
+    <col min="3" max="3" width="37.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="43.25" customWidth="1"/>
+    <col min="5" max="5" width="51.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -441,25 +500,63 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/13.bug表/bug记录表.xlsx
+++ b/13.bug表/bug记录表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,6 +101,10 @@
   </si>
   <si>
     <t>如果一分钟没有心跳包则断线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时解决，未出现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -124,7 +128,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,6 +138,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -150,12 +160,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -460,7 +471,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D3" sqref="D3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -499,6 +510,9 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
@@ -520,6 +534,9 @@
       </c>
       <c r="B4" t="s">
         <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">

--- a/13.bug表/bug记录表.xlsx
+++ b/13.bug表/bug记录表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,6 +105,18 @@
   </si>
   <si>
     <t>暂时解决，未出现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.24又出现 ，以上措施不管用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.10.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在以上措施的基础上,再次出现终端设备一直无法上线的原因</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -128,7 +140,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,6 +159,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -160,13 +178,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -468,16 +487,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="36.25" customWidth="1"/>
-    <col min="2" max="2" width="44.625" customWidth="1"/>
+    <col min="2" max="2" width="44.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="37.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="43.25" customWidth="1"/>
     <col min="5" max="5" width="51.375" style="1" customWidth="1"/>
@@ -487,7 +506,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -518,7 +537,7 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -532,7 +551,7 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -543,7 +562,7 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -557,17 +576,25 @@
       <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
+      <c r="D6" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/13.bug表/bug记录表.xlsx
+++ b/13.bug表/bug记录表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,6 +117,13 @@
   </si>
   <si>
     <t>在以上措施的基础上,再次出现终端设备一直无法上线的原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终确定是由于AC_4 和 IO_4软件</t>
+  </si>
+  <si>
+    <t>已解决(2022.10.27)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,7 +497,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -595,6 +602,12 @@
       </c>
       <c r="B7" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/13.bug表/bug记录表.xlsx
+++ b/13.bug表/bug记录表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,38 +92,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>注册的时候没有注册好，导致总线上出现两个相同的设备地址，现在隔60秒重新发送设置地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果一分钟没有心跳包则断线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时解决，未出现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.24又出现 ，以上措施不管用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.10.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在以上措施的基础上,再次出现终端设备一直无法上线的原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终确定是由于AC_4 和 IO_4软件</t>
+  </si>
+  <si>
+    <t>已解决(2022.10.27)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.11.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SD卡读取校验crc错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于字节对齐不一样导致的数据校验问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决(2022.11.22)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>措施</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>注册的时候没有注册好，导致总线上出现两个相同的设备地址，现在隔60秒重新发送设置地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果一分钟没有心跳包则断线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂时解决，未出现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.24又出现 ，以上措施不管用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022.10.24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在以上措施的基础上,再次出现终端设备一直无法上线的原因</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最终确定是由于AC_4 和 IO_4软件</t>
-  </si>
-  <si>
-    <t>已解决(2022.10.27)</t>
+    <t>#pragma pack(1)//Justin debug
+typedef struct monitor
+{
+    /* 以下为统一分配 */
+    struct allocate     allocateStr;
+    u8                  sensor_size;
+    u8                  device_size;
+    u8                  line_size;
+    sensor_t            sensor[SENSOR_MAX];
+    device_t            device[DEVICE_MAX];
+    line_t              line[LINE_MAX];
+    u16                 crc;
+}type_monitor_t;
+#pragma pack()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -523,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -537,7 +570,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -551,7 +584,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -590,24 +623,41 @@
         <v>16</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="203.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>25</v>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
